--- a/image/plandefinition.xlsx
+++ b/image/plandefinition.xlsx
@@ -1740,45 +1740,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.18359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.66796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.0625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="37.5234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="38.08984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/plandefinition.xlsx
+++ b/image/plandefinition.xlsx
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -386,10 +386,6 @@
     <t>PlanDefinition.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the plan definition</t>
   </si>
   <si>
@@ -1188,6 +1184,10 @@
   </si>
   <si>
     <t>PlanDefinition.action.goalId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>What goals this action supports</t>
@@ -1740,45 +1740,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.76171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.66796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="38.08984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="37.5234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3148,16 +3148,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3222,10 +3222,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3259,19 +3259,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3320,7 +3320,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3329,7 +3329,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3372,16 +3372,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3431,7 +3431,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3446,7 +3446,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3483,13 +3483,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3540,7 +3540,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3592,13 +3592,13 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3625,14 +3625,14 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3704,13 +3704,13 @@
         <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3736,14 +3736,14 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>48</v>
@@ -3775,10 +3775,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3812,19 +3812,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3873,7 +3873,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3888,10 +3888,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3925,13 +3925,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3939,35 +3939,35 @@
         <v>40</v>
       </c>
       <c r="P20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3999,7 +3999,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -4013,11 +4013,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4036,16 +4036,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4095,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -4110,10 +4110,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4147,19 +4147,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -4208,7 +4208,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4223,10 +4223,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4260,16 +4260,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4319,7 +4319,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4334,7 +4334,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4371,16 +4371,16 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4430,7 +4430,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4445,7 +4445,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4482,19 +4482,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4543,7 +4543,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4558,7 +4558,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4595,16 +4595,16 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4630,14 +4630,14 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4669,7 +4669,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4706,16 +4706,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4765,7 +4765,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4780,10 +4780,10 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>117</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4817,13 +4817,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4874,7 +4874,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4903,11 +4903,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4926,17 +4926,17 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4985,7 +4985,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5000,7 +5000,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5037,16 +5037,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5096,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5111,7 +5111,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5148,19 +5148,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -5209,7 +5209,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5224,7 +5224,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5261,19 +5261,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5322,7 +5322,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5337,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5374,17 +5374,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5409,14 +5409,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5448,7 +5448,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5485,13 +5485,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5542,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5566,12 +5566,12 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5594,13 +5594,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5651,7 +5651,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5703,13 +5703,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5760,7 +5760,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5784,12 +5784,12 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5812,13 +5812,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5869,7 +5869,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5893,12 +5893,12 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5921,19 +5921,19 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5982,7 +5982,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6034,13 +6034,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6091,7 +6091,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6143,17 +6143,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6202,7 +6202,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6214,7 +6214,7 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6254,13 +6254,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6311,7 +6311,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6335,12 +6335,12 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6369,7 +6369,7 @@
         <v>94</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -6422,7 +6422,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6446,16 +6446,16 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6477,10 +6477,10 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>96</v>
@@ -6535,7 +6535,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6587,13 +6587,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6620,14 +6620,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6696,16 +6696,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6731,14 +6731,14 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>48</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6807,13 +6807,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6843,11 +6843,11 @@
         <v>71</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6916,13 +6916,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6949,14 +6949,14 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7025,13 +7025,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7058,14 +7058,14 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7134,13 +7134,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7191,7 +7191,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7243,13 +7243,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7300,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7312,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7352,13 +7352,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7409,7 +7409,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7433,12 +7433,12 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7467,7 +7467,7 @@
         <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>96</v>
@@ -7520,7 +7520,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7544,16 +7544,16 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7575,10 +7575,10 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>96</v>
@@ -7633,7 +7633,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7685,13 +7685,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7718,14 +7718,14 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7794,13 +7794,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7851,7 +7851,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7903,13 +7903,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7960,7 +7960,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8012,16 +8012,16 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8071,7 +8071,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8083,10 +8083,10 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8123,13 +8123,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8180,7 +8180,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8204,12 +8204,12 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8238,7 +8238,7 @@
         <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>96</v>
@@ -8291,7 +8291,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8315,16 +8315,16 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8346,10 +8346,10 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>96</v>
@@ -8404,7 +8404,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8456,13 +8456,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8513,7 +8513,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8565,13 +8565,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8622,7 +8622,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8637,7 +8637,7 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8674,13 +8674,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8731,7 +8731,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8746,7 +8746,7 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8783,13 +8783,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8840,7 +8840,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8855,7 +8855,7 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8895,10 +8895,10 @@
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8925,14 +8925,14 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9001,13 +9001,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9058,7 +9058,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9110,16 +9110,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9169,7 +9169,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9221,13 +9221,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9278,7 +9278,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9330,7 +9330,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>380</v>
@@ -9387,7 +9387,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9439,7 +9439,7 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>383</v>
@@ -9457,34 +9457,34 @@
         <v>40</v>
       </c>
       <c r="P70" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X70" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X70" t="s" s="2">
+      <c r="Y70" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9517,7 +9517,7 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -9663,7 +9663,7 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>392</v>
@@ -9734,7 +9734,7 @@
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -9774,13 +9774,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9831,7 +9831,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9855,7 +9855,7 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74">
@@ -9889,7 +9889,7 @@
         <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>96</v>
@@ -9942,7 +9942,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9966,7 +9966,7 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9997,10 +9997,10 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>96</v>
@@ -10055,7 +10055,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10142,7 +10142,7 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>402</v>
@@ -10547,7 +10547,7 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>417</v>
@@ -10618,7 +10618,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -10658,13 +10658,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10715,7 +10715,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10739,7 +10739,7 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82">
@@ -10773,7 +10773,7 @@
         <v>94</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>96</v>
@@ -10826,7 +10826,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10850,7 +10850,7 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10881,10 +10881,10 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>96</v>
@@ -10939,7 +10939,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10991,7 +10991,7 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>424</v>
@@ -11133,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>429</v>
@@ -11427,7 +11427,7 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>440</v>
@@ -11496,7 +11496,7 @@
         <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>40</v>
@@ -11536,13 +11536,13 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11593,7 +11593,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11617,7 +11617,7 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -11651,7 +11651,7 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>96</v>
@@ -11704,7 +11704,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11728,7 +11728,7 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11759,10 +11759,10 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>96</v>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11902,7 +11902,7 @@
         <v>40</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>448</v>
@@ -11978,7 +11978,7 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>451</v>
@@ -12011,7 +12011,7 @@
         <v>40</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>453</v>
@@ -12087,7 +12087,7 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>456</v>
@@ -12120,7 +12120,7 @@
         <v>40</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X94" t="s" s="2">
         <v>458</v>
@@ -12229,7 +12229,7 @@
         <v>40</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>463</v>
@@ -12338,7 +12338,7 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X96" t="s" s="2">
         <v>468</v>
@@ -12447,7 +12447,7 @@
         <v>40</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X97" t="s" s="2">
         <v>473</v>
@@ -12556,7 +12556,7 @@
         <v>40</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>478</v>
@@ -12665,7 +12665,7 @@
         <v>40</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>483</v>
@@ -12963,7 +12963,7 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>497</v>
@@ -13034,7 +13034,7 @@
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>40</v>
@@ -13074,13 +13074,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13131,7 +13131,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13155,7 +13155,7 @@
         <v>40</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104">
@@ -13189,7 +13189,7 @@
         <v>94</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>96</v>
@@ -13242,7 +13242,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13266,7 +13266,7 @@
         <v>40</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13297,10 +13297,10 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>96</v>
@@ -13355,7 +13355,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13407,7 +13407,7 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>504</v>
